--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/16_Bilecik_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/16_Bilecik_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7525D46-A976-461B-B050-46D86B3AAF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F55BC4A5-D1F3-4BFA-8D28-E5E8B2888D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC1FC304-6345-454E-8CD2-E25C1249EB6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5FCA1CA-C1E6-46E1-B803-A94710F53740}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{04CB7937-0A39-48EF-8D60-B69A345F8FD9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{F8AFBDF9-720E-41AF-8BBF-4A6F765974C4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{DB3B4A9F-5D5D-4293-9607-79AE95B27E04}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{79648094-DAAA-43F8-AA83-43A70C0CD23B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{D48C0A0C-9869-49E8-A3AB-0B03CCD3F6F1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{0EE69DE9-BE4A-494E-9CD3-F9122C95FCBF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{C0E622B8-CE46-42DC-AB11-7EBD338FC491}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{39497E02-3ECF-4D4B-8D10-C05BCE3642D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325AEB97-5E22-4069-8C0F-807766FC18FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0CCFBA-5C89-42DF-893E-06CEAEDB7C9C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2429,18 +2429,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2CA0FA25-BEB4-4CA9-B7B2-4D8B73A29D1B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F3E335F9-724A-488D-976C-E16EB33F74FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3BFAEB9D-D5A9-44C3-A806-1DF0AFABFB78}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3C97E793-7CFE-4993-9911-A266994D0BB4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FD47E005-79AD-42F8-930B-437183ED9B75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F30878D3-6D56-4F6A-82CD-4013C8413745}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D1E632FA-6A11-4340-80D8-6473F02F6A73}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A9C7A2D9-B3C0-4738-A2E7-502AE588E901}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{076AAD32-B75A-4D9E-B842-4F3D7EA10211}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AA6C5D8B-A625-416D-8860-5A0EF2277BD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E48B29F0-8B6E-469D-BA73-01F44B4350BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D1189700-B7F9-4536-B58E-47739903D3F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{867F8D9C-743A-4FBF-95B4-F73070274AED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{70FB4C05-05FD-4955-BFCB-134484DDCD92}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7479A3EB-98C6-46E6-B197-D89A4BECFDD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AD73EB88-EB50-4020-84F6-C7BA47E8E5C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C0C0E57E-085E-475F-B54A-BC627A5A6B6C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6A7DE267-78AF-41D9-B783-0E9F6287970D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{11978AE3-B3DE-4B50-A560-63C3DFCC29AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{02BA57F0-5143-475F-8407-54D9161425BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7910FF6A-E5D1-44EE-B476-8A300AF0C99B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2F4F9A28-3737-42BC-8262-E97142482003}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5717AE90-0C9A-4FF9-A0D6-E641E8261045}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{228FD767-2AA7-4458-8A9F-1FE8B6408965}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2453,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F2C0E3-86E4-42CD-B16D-37E1A18F6933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7EDC9-1E77-4F0B-8A26-33B1A28A2B2E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3622,18 +3622,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2F2D7C7E-3297-4573-BC7F-6F59B1B1E0DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0D917D12-CD82-4C10-B9E9-074E02107B5A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DB5C5B58-150B-423B-BA94-C87F863B0A66}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6A78D27F-C267-4C3B-9A03-57A2EC384112}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{37C6354F-BCF7-4117-8D35-13D690EA37F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{66BE4FE1-3BC3-417B-82D2-87E0F1229D49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F3E07AFF-66BF-4CB0-B6A9-264DF03420D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ED118917-C5D9-41C7-937D-30DC47B26988}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{71B5D6FC-3D8C-4475-9230-71D89A02C443}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EB6498BA-C21A-4AA3-B375-33D01D422AE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{17A5772E-CE22-4338-83AC-5B7377977FCF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B3A40846-C505-4B26-A463-E147654E6DAE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{048FF19B-64EE-434A-A55C-1FE522EBE490}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0710F6EF-326A-4874-98D7-36E7C2F9A2AC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{31B89B90-A34A-4231-8698-B2BB8A37ACAE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{715978D4-3066-4562-A730-62805339160D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED40CF22-DC71-4940-AA6A-BBA8F6008577}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{86187E13-D9EE-461A-84CE-46E96FC2AF10}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F1A89998-13D4-404A-9618-7DAEC67B6A17}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ABDAC54D-FEF5-4D2A-9387-78672702F0BA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8DA245F4-547C-425A-89E1-F160DD26786E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8C7C0913-BFE5-4BFA-8D31-E862DEDBE392}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F4631B17-EA41-4E67-A536-897A889C75D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D9E4DEAC-02CA-495A-B601-167354AFC0DD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3646,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA92A24-2089-42F6-A031-F76171FDA1D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986DF693-4004-4914-B1A1-79F675AEAF7A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4815,18 +4815,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D3258183-6C06-4F67-A53D-FC7EBBB0E5ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CD13D0A8-C853-42C9-AF3E-B66062EACC71}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DA13A07B-6F30-4A01-87C6-452004589170}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{43FE4E0D-C1F1-454F-BEA4-EE51BC24C02E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CB82D6D9-8CDD-4079-9E2E-162BA8AEAD9C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{855A1E7B-7E55-4080-86DD-7713C7FFCAAA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{233DFAE3-46A2-4A4F-BCB3-AF108605AA0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6DB1396E-F7F3-4392-8365-C12321EC9FEB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F78DA3EF-07BC-4DD3-880D-724848BD4199}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{31109A1C-4A6E-40A0-ACB6-D29C7709DFFB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{20494D42-6906-45FA-95C1-3C0157DD938B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{863D276F-4724-49EA-893D-AFC710818CFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A563A457-B3C2-42FF-BC83-EF57B663F83B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BBB0AE33-58AB-4819-8637-4407A55F526B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EB969B64-840A-4AFC-A792-8914CE9708BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CE145F48-8DD0-454D-8470-2B8F9AD523B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BF26F3B1-FDB0-47EC-B862-56F2587440A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2FF658CF-B376-44A0-A0BA-580FAE218E90}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5E3111DE-9053-49A1-ABB7-E75A047CDB83}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{65C818C2-26C9-4836-9F93-1F8ACCA3A2D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{17A9FD89-CC74-46C6-8575-5E614474760C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C2DF3A1D-97AE-4C8F-8668-586A8B114B0D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BA81AAEA-DECC-4D7B-AE46-A7AEA94F5232}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FA6AC702-666F-4838-AA76-4EF8A4DE8066}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4839,7 +4839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9059C09-A2A0-4B9C-8914-0DEF7C4BFE8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD76193B-AAAC-438F-A34A-EADBA0CD04BD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5986,18 +5986,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{30AECF69-A952-412B-AF0C-B392EAB64C2B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4305F5BF-A0A4-4652-B839-34017D767E27}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D6507E8-044A-4295-AAC0-E3E0880A076E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DE772F11-2A77-47C2-AF2B-0BF3663A2EF4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{86DC8E14-DFB0-4F3C-A576-B432CB2157FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{02BF450C-C5DB-4473-AA1F-8CF6AA3D220A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A6026670-8B04-433D-9163-2505412FEA9E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4C38829A-2199-42A0-AE0B-340BDB9C3D1F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DB6C184C-35A6-4B3D-831F-6C40D0B62956}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{15940CEB-21C3-45D0-8F88-A9CB431AB46E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{63483F4B-00EC-4305-BDBD-44725D776143}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{54581BDE-9C3B-4274-8655-4FF59267DA8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{40C86986-F6A1-48F1-B363-797937A919AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FDE1F2FC-8754-4FE4-B3B9-ABA74CC87FD2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FA234CF7-EECF-4435-BB95-78A6B95556B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E200962E-CB5A-410A-B4BA-22B863326B60}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A6FDC963-698C-4372-B170-690F2AAE2E3D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{70C317AA-9F13-42E5-86AF-22344A7B9D9E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{20920724-FDE3-4AFD-BCE8-0C77DC923154}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{952BBD4D-DCF1-4F21-98AD-366D34D9F7A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9D5C34CE-1C83-4AB2-8320-C6B7E41C5C5D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9E88BDB7-537C-43D8-97C8-B8460E728A4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BF78E71A-DE38-41A2-925D-ACC649A726FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{353AD427-46F6-4359-BCAA-4ABDA8CC493E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6010,7 +6010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC27688-F4E2-4BF4-AD3E-A769D6E026FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E6E12F-8CEF-4AB4-BD6D-E7B8B0BD9253}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7199,18 +7199,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{83561FCD-C964-4815-A207-562D521D5748}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EED71A39-6EED-481D-9294-C8A85C468635}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A2E083FB-78D5-46F6-B946-6884DF58B728}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CA31654B-A770-4136-9DFF-D2D40BF72454}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B503F73B-7867-4A39-84EE-D4443C0FAD95}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9539D24B-8A27-42A7-B017-6AE491436A49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CA2E9326-91A0-45C1-A562-AAB70812ED79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{559517FB-F49E-4B7A-BAE5-A35A19B27F6F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{838E733D-90F0-484B-93C9-6C99FAEDB7B9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1F29ED7A-9BD4-4B43-BA95-71C1135B2D71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{13BA3E55-BD0A-4510-A54B-73A10CAE9B9A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5743D22C-58D0-40B5-9FD2-2A9759A9F9F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{805E4B8B-FA92-4F20-826F-E1AFCFBE79D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CB11848A-5AD4-4614-B9B4-FF281D21D9E7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{826A3D28-16DA-4424-966B-193BDB81A2E4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8EF55763-06E2-445D-BDFF-FC0298DCF6AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4039F0A9-92AD-4889-915A-05DA5C9F2633}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{57BFEC74-0567-4B43-86BB-D83D9292FCCD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2498CC12-D8A3-4677-910A-3416378DCA9E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DFCBEF83-31AA-4DA0-B98B-FA68C358DD6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9C5AAD81-E959-4B79-99F6-6B4717830EC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{73A2E769-8954-46CD-A1CB-759253062AD2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1543B679-0C3B-43E2-AFD9-59146E0D5923}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{08921807-1FE7-4A1B-923B-6BBE71B707E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7223,7 +7223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262AE7A3-B6A7-42F0-8723-963C19678DF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032AD99F-D106-4B4A-BF45-4A62854C1EAC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8410,18 +8410,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{33F275BB-D958-4F05-95B0-C5B1BEEEAAAC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F7C8C845-6DF0-4FBD-8ADB-7715F764C33B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6A6FAE84-5F83-4272-8479-9121EA2A2E94}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3EB5A707-DCB4-487E-9E1A-0F4788070429}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6FA18BDB-3A6F-4AF5-B2A9-B68BA65E860E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{06761B55-BB7B-4068-84A7-E221811199E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F52DE61A-D178-479D-AC8F-D54F3F31B55C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1259F2AC-993C-4A5F-9F64-1FB972F13F06}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{303FE4F4-5593-43D1-A72F-2589EE624DAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7A83781D-E7DD-451F-89CD-4FC764CB43D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2274B698-E485-4298-85A4-9D13FC395470}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{62612B10-6737-4689-B25A-F2FE9954B240}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EE4BA213-1E6B-407E-A868-FC1B1E744681}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{476CBAB2-FD52-4733-A029-D1F669A3E486}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BAF557B0-437B-4623-97E5-B6AED74396BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FDDDDAD3-2834-4FEB-AE50-6AEBBBFA2A48}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BFBEA2BE-2E8D-431E-8ABF-DF1DD29030C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6F176E12-17B2-4C80-8EC9-552EB26FA4DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3C479B46-9DC2-4C28-882F-6F752FF0EB7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FAE6FF2C-3A36-4B39-A9D3-B3BCC5CC8FC0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{06AEEB52-D604-415C-BB56-6AA8E933B889}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F2BD70A0-4DC8-4319-81D5-320AD6A20B27}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BAD4415D-60CE-4563-ABF0-C3C7422D029F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CA718B92-095B-435D-9EFA-EF68EBFF79DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8434,7 +8434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E384CA-F86F-46C0-A810-08E3E6002C2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A2B1DE-CC54-40EA-9F9E-69DCFFDCEA82}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9635,18 +9635,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2CA8DDDA-2581-4D20-A779-EF10F6CA8B82}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2FC00A4C-719C-49DB-A5B3-1806B46FB717}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F002CA37-C6D1-489A-87FD-199730EA8EB1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D12F9E6D-1006-4792-97DB-8550C19FD039}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E85785F6-F9B7-4111-B74B-22504491CB42}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FE87D0EA-2702-4573-A547-0AD104012C60}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{38E2A754-2FE5-4E57-9CFB-614DCBBF5D7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{560CF9D4-0EDC-4E4E-BFE8-329FC4B7499F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CC3B1808-0466-4A8D-9C18-C946E1A70C97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9D0EBB0D-6021-4793-BA79-54360F447958}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E9F3FB65-4C65-45EC-B08F-8B817132388F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{67BFDF60-1C90-4781-B479-A16157AC99E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9395064D-2250-4936-BB71-7A62CD4F81B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{88D7F4CD-BF28-40E8-BA4E-4266CAE6C44B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{850DAACC-D2BC-4B89-93BB-3A0FA475025C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F07689CC-93DB-498C-93AA-68CC9A721A49}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FF76542A-A9DA-49BF-86F7-CA774CBC9248}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D09A20D8-7576-4B83-9DA8-2B787DA9CFF3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3C283286-C044-4BAC-814D-C8ECC7ECEC97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8099B6C6-1128-4AD7-88E2-E0FADA615F06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9B88A282-EE8B-4CE9-B1DB-622DF8842936}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E1BF4F7-C2ED-4BF3-861B-A2ABD5EB8097}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{09BEB9DF-B398-4980-8435-1CA19B0B0069}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CB8B9E89-32EE-488B-81D5-34E4BCEBDF7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9659,7 +9659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC958458-9A8A-46AB-843D-F95A5BCE21F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61739452-C121-4DE9-AA48-7C1232D39287}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10860,18 +10860,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6E0A6345-5CAD-45E7-8D92-45A82A1E9695}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9BE2BDAC-77E5-4234-8363-7AB341195032}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{40DBA3EF-D648-4BED-AB6C-2BD8636D1C17}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E5FFFBB5-2610-46DC-B649-72C61D8822F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{583B046A-3652-482D-AE7E-0E24DC1FA8B5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{355EC319-480D-4B2E-9D3D-F921EF5869DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2E2F76B3-F38A-4254-A947-88568B6CBD2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2160A4DD-B5C7-43D9-AD62-AEEE66730840}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{474E1A3A-6C15-45D4-8BC6-1330E6ED03D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C9B4C7D3-E52D-4FBB-BB30-72931B1F9041}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F20A5B96-B34F-4C1B-987D-1B498C1D66B7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3FB223E7-D9BD-4B84-A134-DE0F634A1FAB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4E3B31D3-2778-4F1B-BFB0-77F4FC460297}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{512478D3-CD48-41BD-BCC9-18F4F10A250D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E0F39C49-7465-4BFE-95DA-0609B21168D7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9E20A27B-B0B2-464B-8F35-FD6506A2A0EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{71B8C0E2-EDC7-4361-ACE5-45FA913824D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D10D50E4-6A61-4A06-906E-F9453D00AE39}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B7F1351F-BB5A-4986-A69A-7D0C31588128}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0BF1994D-880F-455D-8CFC-F4CCEEC5F086}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{96C61B0D-1245-4DD4-8956-98B97D6A84D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{04424BC5-BFD8-467A-AAE7-CD5070DE9508}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{790A6116-EB35-44F3-A6C6-5D3A6B3CD9C0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9A418BBC-7AE9-4FD9-95E0-9DCC47A60FFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10884,7 +10884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A22B519-2865-4695-A1C6-DF3C48A5B038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254F54EB-B1A8-451D-9F91-84520977C574}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12085,18 +12085,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DD327710-2A67-4067-96D8-B6D5FC9B6D3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C990ADD9-FF5A-4950-9521-22FBFCD96967}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{363EE256-BCDF-4AEC-AC59-5A69365C4221}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E5868AC4-52A6-44E7-B34A-E50C1314E8EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{726809FD-2D90-40FD-9A99-95F218CF6A5C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7902B31E-A2D9-4ACA-8AB8-AF1E3AFAFD95}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{103532D5-CF80-44F5-8F3E-8C2CC4970909}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FD11CB0D-F846-4A33-AC72-DC4676A0426C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A2EC4A64-4300-4DD1-ACC4-FC6E02B14E90}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D00BF4E3-27E1-42A3-9AFE-DD824AD2C983}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{36EBABBB-54CB-41F7-8BB9-E0F7865B9F10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{041A062F-48AC-427A-8D1D-E11DADA399A9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{51C9CB7B-FCCD-4416-8CD1-D2F95EA9AF45}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{20F0608D-D77C-4EC5-87B9-021D52621577}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4AC6A2BA-11A3-4546-B0EB-5A646735BBF0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0A6B4F9B-DF60-4B2D-9D72-D10D581869A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DCFAA26C-892D-45BE-B440-C860E752B346}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4308D3C1-B84D-4566-9CA7-3A7D6C1AE8C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{61BAE91F-369B-4EC6-ABCB-C106C5298154}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B525EFD8-C567-4AB9-891F-5F62286B691D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F0957F26-1F92-42E8-A3A6-3FC869E8C4A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CDB5CBC8-A512-4A1F-8775-24B73EEFFA91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C0EF368C-6369-44D6-A57A-7D940F0B59CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{87B17AE1-8A16-485A-B773-0BA8D8AC8DEA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12109,7 +12109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1E39DF-1C00-4124-9ECD-D7C45920BD5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B448C07B-FE93-4330-8048-50429D30BBBA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13310,18 +13310,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1986DD24-B296-4428-B634-F3FC1F034B5F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B7418AA6-1AFC-49AD-9BD7-08377775DABA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ABC2B8E3-605B-45B2-A58A-934023E2858E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EDFD12F4-D735-4F86-BC01-E197D3BB9818}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6B70AFA0-7C75-49FB-B170-2E9E0ED3AB11}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{173D59E5-B1E6-436C-A93F-025657ED10AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C611044B-4BD9-415C-86FD-F38EECA09721}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{753F6F53-73D4-4FA4-A1EF-0F2221C598BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E0FAFD99-338E-42E2-9B36-63E39A3A8AA9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DFF97AEB-CF3B-4B7A-8CEA-273ECEB5A2D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{420D2CC2-C44F-413D-8AD6-74FD9D3D0308}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{017A43F4-3694-471A-A181-FA8549DACB15}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{146CB26F-39F9-4AF1-83C5-6B1C66ECFCD8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{59C9AF5D-CC86-4E26-8629-6B1FC0F5F1DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{34323947-89D5-45FE-A8FD-E33B8D3CCA55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{262594E3-E962-45EB-8E97-6127D95FA57E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1FEC0CFE-BE2C-4C67-BD8A-872ED608C12B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A50F1028-802D-4F73-A711-E5B894270C96}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5EB6C3CF-EC0B-4C50-9014-612A706338EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{619E1C00-D380-4BB2-ABFE-745C852F9774}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F363B572-0A61-43BA-B31F-476985653EDB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{71C4C286-8629-4EDB-97AC-28409B3CAEA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FD27619C-90DE-4872-8EDC-5E4CF941F641}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C5AC7522-202A-45E2-B856-6D370AE01A2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13334,7 +13334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246E92E0-0A76-49BC-A2D5-3F85C6DC507E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDA660-C131-4653-9335-5F7AD36896F1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14517,18 +14517,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A58E363F-6CF0-4CC0-9B52-8A29132E972A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{284E11FA-BD26-4B40-A297-F3E0382FFA1D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1BEDA6D2-66B2-44D7-812D-7EEA71F53F28}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A40D61B2-2ECC-4D25-8A0F-269C7B649888}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{52EA3A19-6A8F-4DBC-B71E-AF08A361860E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{95BCCB45-89C2-4308-8368-5E9667682FC5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5C890ACD-895A-4601-993B-EB7EDCDADEA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{73DB660F-3F8F-4355-8839-9F8DFAA5A46B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9BE59109-B053-42B0-BBFA-7DFC13A1D57D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FC27A5E5-EE68-4BB5-9231-7FC8EEF01F30}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DE275C4F-E93A-4CDC-A57A-DD756DD78359}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{54880F94-B76A-46BA-A19A-AE0570D3D3D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A20D9EC8-EC3A-45F0-9DEE-FDC7A23A711B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EF5F0628-405F-4E8F-83C1-565FFDD20114}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D3F01886-D13A-4F44-ABF4-45CB0166713C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{47F94CA8-8AED-4A39-B172-A149D5733B16}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8C0AA4E9-9D4E-449C-8F74-5E7FCF704C89}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1EE2DD86-BFD2-4BD5-80AF-795019546299}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BE8570CA-13DF-445F-85F1-E794786DE147}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5E1845CF-CB62-47F6-AEE1-6F9BB4043EA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DCC5FDAA-6792-4DBA-AAA2-31FE859B9E91}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E9707D69-08D8-4D60-8E77-9C279FF8AFC5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E30BE60B-0136-4512-9B1D-1B6655F90ECA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A9123BB-7BCF-4BC1-BDDF-60A0DDDDC301}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14541,7 +14541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCA158-E5E6-4B8F-849E-9AB78F39F971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E9F1F4-B45D-49BB-AE2D-327CD5DD4544}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15716,18 +15716,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{06A60370-7D36-4D9B-ACD8-F850E480759D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{46CF669C-7CA0-479F-81B1-7DF5BD603466}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3343C876-E2EF-4511-9D99-5C64D56EA5FD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{677AAE1C-9726-4A61-B010-99D0A9BFBBD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{597B9362-E7B4-468A-AB00-0B710F7ED1DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4FB06D50-1743-4C44-B665-FECA42DD95A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{962F586E-987A-4505-AE66-3CFCB2587E60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5CE9FB85-25F3-4D13-90E7-DF12F6E34F15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9903BAC0-9056-45BA-95CF-9FED96C34F12}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6F268E7B-ABFB-4732-9490-4E64F4F6C633}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1A84A329-0BC4-44E8-A8B5-000261E64366}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9C1A1B2B-8BB0-4AB7-9D91-65C68FACA1C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A3B3DB3F-0964-4EDC-B346-40D8774DA4C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3EF30FEA-E8C7-464C-A3C0-52138CDAD96E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EC9B3521-F05F-480F-9454-922F8711D060}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5B4D0447-8E90-420D-AEF1-4AE5934AC04F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C2514FF3-B81B-4954-AF13-4AE73E397882}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5D8FCA6D-57EE-4E33-91AD-362627DCE967}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5D18C1FD-CDBD-48F0-AEEC-68CAF0820D60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7AA520D3-7387-4037-989D-5E9FED91AB7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{59497773-1C29-4B18-996F-F9E802E9ABCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{66F573E7-C816-48DB-B40E-F7ADC877D7AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C6212369-14E2-4EE0-B1B9-89EBFB4C03A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B9BD6293-5BA2-4AC0-A606-C0C0D36AD407}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
